--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_VNPTKhanhHoa.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_VNPTKhanhHoa.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="37" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -691,6 +691,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -708,30 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,43 +1075,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1156,58 +1156,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1232,23 +1232,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1337,7 +1337,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1395,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1513,7 +1513,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2831,13 +2831,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2849,6 +2842,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2859,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2892,43 +2892,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2973,58 +2973,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
@@ -3049,23 +3049,23 @@
       <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3144,7 +3144,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3320,7 +3320,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3407,7 +3407,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4638,6 +4638,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4649,13 +4656,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4666,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4699,43 +4699,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4780,58 +4780,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -4856,23 +4856,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4910,11 +4910,15 @@
       <c r="P6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4945,7 +4949,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4974,7 +4978,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5003,7 +5007,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5032,7 +5036,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5061,7 +5065,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5090,7 +5094,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5121,7 +5125,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5150,7 +5154,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5179,7 +5183,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5208,7 +5212,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5359,7 +5363,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5668,7 +5672,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5860,7 +5864,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6439,13 +6443,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6457,6 +6454,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6467,8 +6471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6500,43 +6504,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6581,58 +6585,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6657,49 +6661,81 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="B6" s="65">
+        <v>44600</v>
+      </c>
+      <c r="C6" s="65">
+        <v>44600</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="38">
+        <v>862631034745363</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6711,26 +6747,48 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="65">
+        <v>44600</v>
+      </c>
+      <c r="C7" s="65">
+        <v>44600</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6740,26 +6798,46 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="65">
+        <v>44600</v>
+      </c>
+      <c r="C8" s="65">
+        <v>44600</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="37"/>
       <c r="I8" s="54"/>
       <c r="J8" s="1"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6788,7 +6866,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6817,7 +6895,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6846,7 +6924,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6875,7 +6953,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6906,7 +6984,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6935,7 +7013,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6964,7 +7042,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6993,7 +7071,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7112,7 +7190,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7144,7 +7222,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7453,7 +7531,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -7581,7 +7659,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7613,7 +7691,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -7645,7 +7723,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8224,13 +8302,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8242,6 +8313,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
